--- a/lume_hw/BOM.xlsx
+++ b/lume_hw/BOM.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="lume" localSheetId="0">Sheet1!$A$1:$J$25</definedName>
+    <definedName name="lume" localSheetId="0">Sheet1!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Reference</t>
   </si>
@@ -300,13 +300,22 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>Только плата</t>
+  </si>
+  <si>
+    <t>Сборка</t>
+  </si>
+  <si>
+    <t>Экран</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,8 +342,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -380,11 +403,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,8 +416,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -677,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J25"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,6 +770,9 @@
       <c r="G2">
         <v>28</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
       <c r="J2">
         <f>D2*G2</f>
         <v>28</v>
@@ -765,8 +794,11 @@
       <c r="G3">
         <v>0.5</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
       <c r="J3">
-        <f t="shared" ref="J3:J28" si="0">D3*G3</f>
+        <f t="shared" ref="J3:J29" si="0">D3*G3</f>
         <v>0.5</v>
       </c>
     </row>
@@ -890,23 +922,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1038,6 +1073,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1059,6 +1097,9 @@
       <c r="G15">
         <v>66</v>
       </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
       <c r="J15">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1176,6 +1217,9 @@
       <c r="G20">
         <v>23</v>
       </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
       <c r="J20">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1197,6 +1241,9 @@
       <c r="G21">
         <v>2</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21">
         <v>6</v>
       </c>
@@ -1221,6 +1268,9 @@
       <c r="G22">
         <v>100</v>
       </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
       <c r="J22">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1243,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
@@ -1266,84 +1316,133 @@
       <c r="G24">
         <v>0</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="J24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>32768</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
         <v>15</v>
       </c>
-      <c r="J25">
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>430</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>500</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="4" t="s">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f>SUM(H2:H26)</f>
+        <v>101</v>
+      </c>
+      <c r="J30">
+        <f>G30*H30</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J29" s="4">
-        <f>SUM(J2:J28)</f>
-        <v>1336</v>
+      <c r="J31" s="4">
+        <f>SUM(J2:J30)</f>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="4">
+        <f>SUM(J2:J27)</f>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
